--- a/N 8333 UF WAHID.xlsx
+++ b/N 8333 UF WAHID.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>19/01/24</t>
+  </si>
+  <si>
+    <t>16/3/2024</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1329,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,12 +1745,25 @@
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <v>79520</v>
+      </c>
+      <c r="F20" s="1">
+        <f>5000+E20</f>
+        <v>84520</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
